--- a/Arquivos/Análises/Comparação entre RVND e os resultados do artigo.xlsx
+++ b/Arquivos/Análises/Comparação entre RVND e os resultados do artigo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885"/>
+    <workbookView windowWidth="13725" windowHeight="4785"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -201,12 +201,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -245,51 +245,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -311,9 +266,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,26 +318,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,11 +340,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,6 +375,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +402,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,19 +432,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,145 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,17 +713,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,27 +758,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,167 +795,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,10 +982,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,21 +991,12 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,10 +1021,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1054,7 +1042,7 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="B2:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="P19" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1434,7 +1422,7 @@
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1438,7 @@
       <c r="P2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="26"/>
+      <c r="Q2" s="22"/>
       <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1483,9 +1471,9 @@
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="26"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1495,15 +1483,15 @@
       <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="26"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="22"/>
       <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1513,14 +1501,14 @@
       <c r="T3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="U3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
     <row r="4" ht="15.75" spans="2:24">
       <c r="B4" s="1" t="s">
@@ -1529,68 +1517,68 @@
       <c r="C4" s="1">
         <v>70</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>609.06</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>606</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>606</v>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="G4" s="1" t="str">
         <f>IF(D4&lt;E4,"Melhor",IF(D4&gt;F4,"Pior","Igual"))</f>
         <v>Pior</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <f>(F4-D4)/F4</f>
         <v>-0.00504950495049496</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1">
         <v>140</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>1286.16</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="26">
         <v>1234</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="18">
         <v>1354</v>
       </c>
-      <c r="O4" s="11" t="str">
+      <c r="O4" s="1" t="str">
         <f>IF(L4&lt;M4,"Melhor",IF(L4&gt;N4,"Pior","Igual"))</f>
         <v>Igual</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="10">
         <f>(N4-L4)/N4</f>
         <v>0.0501033973412112</v>
       </c>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="22"/>
       <c r="R4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="S4" s="1">
         <v>210</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <v>1925</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="26">
         <v>1894</v>
       </c>
-      <c r="V4" s="32">
+      <c r="V4" s="28">
         <v>1925</v>
       </c>
-      <c r="W4" s="13" t="str">
+      <c r="W4" s="11" t="str">
         <f>IF(T4&lt;U4,"Melhor",IF(T4&gt;V4,"Pior","Igual"))</f>
         <v>Igual</v>
       </c>
-      <c r="X4" s="33">
+      <c r="X4" s="29">
         <f>(V4-T4)/V4</f>
         <v>0</v>
       </c>
@@ -1602,68 +1590,68 @@
       <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>275</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>246</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>246</v>
       </c>
-      <c r="G5" s="11" t="str">
+      <c r="G5" s="1" t="str">
         <f>IF(D5&lt;E5,"Melhor",IF(D5&gt;F5,"Pior","Igual"))</f>
         <v>Pior</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <f>(F5-D5)/F5</f>
         <v>-0.117886178861789</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="1">
         <v>14</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>581</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="26">
         <v>581</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="18">
         <v>581</v>
       </c>
-      <c r="O5" s="11" t="str">
+      <c r="O5" s="1" t="str">
         <f t="shared" ref="O5:O47" si="0">IF(L5&lt;M5,"Melhor",IF(L5&gt;N5,"Pior","Igual"))</f>
         <v>Igual</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <f t="shared" ref="P5:P47" si="1">(N5-L5)/N5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="22"/>
       <c r="R5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="1">
         <v>21</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <v>1035</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="26">
         <v>929</v>
       </c>
-      <c r="V5" s="32">
+      <c r="V5" s="28">
         <v>929</v>
       </c>
-      <c r="W5" s="13" t="str">
+      <c r="W5" s="11" t="str">
         <f t="shared" ref="W5:W47" si="2">IF(T5&lt;U5,"Melhor",IF(T5&gt;V5,"Pior","Igual"))</f>
         <v>Pior</v>
       </c>
-      <c r="X5" s="33">
+      <c r="X5" s="29">
         <f t="shared" ref="X5:X47" si="3">(V5-T5)/V5</f>
         <v>-0.114101184068891</v>
       </c>
@@ -1675,68 +1663,68 @@
       <c r="C6" s="1">
         <v>7</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>319</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>282</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>282</v>
       </c>
-      <c r="G6" s="11" t="str">
+      <c r="G6" s="1" t="str">
         <f>IF(D6&lt;E6,"Melhor",IF(D6&gt;F6,"Pior","Igual"))</f>
         <v>Pior</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <f t="shared" ref="H6:H47" si="4">(F6-D6)/F6</f>
         <v>-0.131205673758865</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="1">
         <v>14</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>692</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="26">
         <v>672</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="18">
         <v>672</v>
       </c>
-      <c r="O6" s="11" t="str">
+      <c r="O6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="10">
         <f t="shared" si="1"/>
         <v>-0.0297619047619048</v>
       </c>
-      <c r="Q6" s="26"/>
+      <c r="Q6" s="22"/>
       <c r="R6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S6" s="1">
         <v>21</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <v>1128</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="26">
         <v>1090</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="28">
         <v>1090</v>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="W6" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X6" s="33">
+      <c r="X6" s="29">
         <f t="shared" si="3"/>
         <v>-0.0348623853211009</v>
       </c>
@@ -1748,68 +1736,68 @@
       <c r="C7" s="1">
         <v>13</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>480.48</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>489</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>489</v>
       </c>
-      <c r="G7" s="11" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" ref="G7:G47" si="5">IF(D7&lt;E7,"Melhor",IF(D7&gt;F7,"Pior","Igual"))</f>
         <v>Melhor</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <f t="shared" si="4"/>
         <v>0.0174233128834355</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="1">
         <v>26</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>1766.5</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="26">
         <v>1766</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="18">
         <v>1766</v>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="10">
         <f t="shared" si="1"/>
         <v>-0.00028312570781427</v>
       </c>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="22"/>
       <c r="R7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S7" s="1">
         <v>39</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <v>3910.64</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="26">
         <v>3853</v>
       </c>
-      <c r="V7" s="32">
+      <c r="V7" s="28">
         <v>3904</v>
       </c>
-      <c r="W7" s="13" t="str">
+      <c r="W7" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="29">
         <f t="shared" si="3"/>
         <v>-0.00170081967213111</v>
       </c>
@@ -1821,68 +1809,68 @@
       <c r="C8" s="1">
         <v>31</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>11667.28</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>9840</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>10132</v>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <f t="shared" si="4"/>
         <v>-0.151527832609554</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="1">
         <v>63</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>27397.27</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="26">
         <v>24862</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="18">
         <v>24862</v>
       </c>
-      <c r="O8" s="11" t="str">
+      <c r="O8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="10">
         <f t="shared" si="1"/>
         <v>-0.10197369479527</v>
       </c>
-      <c r="Q8" s="26"/>
+      <c r="Q8" s="22"/>
       <c r="R8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S8" s="1">
         <v>95</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <v>49142.24</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="26">
         <v>51542</v>
       </c>
-      <c r="V8" s="32">
+      <c r="V8" s="28">
         <v>51604</v>
       </c>
-      <c r="W8" s="13" t="str">
+      <c r="W8" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X8" s="33">
+      <c r="X8" s="29">
         <f t="shared" si="3"/>
         <v>0.0477048290830169</v>
       </c>
@@ -1894,68 +1882,68 @@
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>224.88</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>151</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>151</v>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <f t="shared" si="4"/>
         <v>-0.489271523178808</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>1140.19</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="26">
         <v>842</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="18">
         <v>842</v>
       </c>
-      <c r="O9" s="11" t="str">
+      <c r="O9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>-0.354144893111639</v>
       </c>
-      <c r="Q9" s="26"/>
+      <c r="Q9" s="22"/>
       <c r="R9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="S9" s="1">
         <v>10</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <v>1637.31</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="26">
         <v>1349</v>
       </c>
-      <c r="V9" s="32">
+      <c r="V9" s="28">
         <v>1349</v>
       </c>
-      <c r="W9" s="13" t="str">
+      <c r="W9" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X9" s="33">
+      <c r="X9" s="29">
         <f t="shared" si="3"/>
         <v>-0.213721275018532</v>
       </c>
@@ -1967,68 +1955,68 @@
       <c r="C10" s="1">
         <v>32</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>1178.35</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>1116</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>1119</v>
       </c>
-      <c r="G10" s="11" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <f t="shared" si="4"/>
         <v>-0.0530384271671134</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="1">
         <v>65</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>2541.67</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="26">
         <v>2492</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="18">
         <v>2492</v>
       </c>
-      <c r="O10" s="11" t="str">
+      <c r="O10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="10">
         <f t="shared" si="1"/>
         <v>-0.0199317817014447</v>
       </c>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="22"/>
       <c r="R10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S10" s="1">
         <v>97</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <v>3908.11</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="26">
         <v>4062</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="28">
         <v>4127</v>
       </c>
-      <c r="W10" s="13" t="str">
+      <c r="W10" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X10" s="33">
+      <c r="X10" s="29">
         <f t="shared" si="3"/>
         <v>0.053038526774897</v>
       </c>
@@ -2040,68 +2028,68 @@
       <c r="C11" s="1">
         <v>37</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>1284.47</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>1204</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>1204</v>
       </c>
-      <c r="G11" s="11" t="str">
+      <c r="G11" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <f t="shared" si="4"/>
         <v>-0.0668355481727575</v>
       </c>
-      <c r="I11" s="26"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="1">
         <v>75</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>2907.65</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="26">
         <v>2772</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="18">
         <v>2790</v>
       </c>
-      <c r="O11" s="11" t="str">
+      <c r="O11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="10">
         <f t="shared" si="1"/>
         <v>-0.042168458781362</v>
       </c>
-      <c r="Q11" s="26"/>
+      <c r="Q11" s="22"/>
       <c r="R11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="S11" s="1">
         <v>112</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="7">
         <v>4684.6</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="26">
         <v>4480</v>
       </c>
-      <c r="V11" s="32">
+      <c r="V11" s="28">
         <v>4480</v>
       </c>
-      <c r="W11" s="13" t="str">
+      <c r="W11" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X11" s="33">
+      <c r="X11" s="29">
         <f t="shared" si="3"/>
         <v>-0.0456696428571429</v>
       </c>
@@ -2113,140 +2101,140 @@
       <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>99</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>99</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>99</v>
       </c>
-      <c r="G12" s="11" t="str">
+      <c r="G12" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Igual</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I12" s="26"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="1">
         <v>21</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>239</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="26">
         <v>227</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="18">
         <v>227</v>
       </c>
-      <c r="O12" s="11" t="str">
+      <c r="O12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="10">
         <f t="shared" si="1"/>
         <v>-0.052863436123348</v>
       </c>
-      <c r="Q12" s="26"/>
+      <c r="Q12" s="22"/>
       <c r="R12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="S12" s="1">
         <v>31</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="7">
         <v>401</v>
       </c>
-      <c r="U12" s="30">
+      <c r="U12" s="26">
         <v>404</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="28">
         <v>404</v>
       </c>
-      <c r="W12" s="13" t="str">
+      <c r="W12" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X12" s="33">
+      <c r="X12" s="29">
         <f t="shared" si="3"/>
         <v>0.00742574257425743</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="2:24">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>12</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>71</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>71</v>
       </c>
-      <c r="G13" s="11" t="str">
+      <c r="G13" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="26"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="1">
         <v>25</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>168.63</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="26">
         <v>179</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="18">
         <v>181.41</v>
       </c>
-      <c r="O13" s="11" t="str">
+      <c r="O13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Melhor</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="10">
         <f t="shared" si="1"/>
         <v>0.070448156110468</v>
       </c>
-      <c r="Q13" s="26"/>
+      <c r="Q13" s="22"/>
       <c r="R13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="S13" s="1">
         <v>38</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="7">
         <v>281.61</v>
       </c>
-      <c r="U13" s="30">
+      <c r="U13" s="26">
         <v>278</v>
       </c>
-      <c r="V13" s="32">
+      <c r="V13" s="28">
         <v>286</v>
       </c>
-      <c r="W13" s="13" t="str">
+      <c r="W13" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="29">
         <f t="shared" si="3"/>
         <v>0.0153496503496503</v>
       </c>
@@ -2258,68 +2246,68 @@
       <c r="C14" s="1">
         <v>19</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>97.21</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>99.45</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>99</v>
       </c>
-      <c r="G14" s="11" t="str">
+      <c r="G14" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <f t="shared" si="4"/>
         <v>0.0180808080808081</v>
       </c>
-      <c r="I14" s="26"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="1">
         <v>38</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>221.22</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="26">
         <v>217</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="18">
         <v>219</v>
       </c>
-      <c r="O14" s="11" t="str">
+      <c r="O14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="10">
         <f t="shared" si="1"/>
         <v>-0.0101369863013699</v>
       </c>
-      <c r="Q14" s="26"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S14" s="1">
         <v>57</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="7">
         <v>340.02</v>
       </c>
-      <c r="U14" s="30">
+      <c r="U14" s="26">
         <v>345</v>
       </c>
-      <c r="V14" s="32">
+      <c r="V14" s="28">
         <v>348</v>
       </c>
-      <c r="W14" s="13" t="str">
+      <c r="W14" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X14" s="33">
+      <c r="X14" s="29">
         <f t="shared" si="3"/>
         <v>0.0229310344827587</v>
       </c>
@@ -2331,68 +2319,68 @@
       <c r="C15" s="1">
         <v>25</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>138.13</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>101</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>101</v>
       </c>
-      <c r="G15" s="11" t="str">
+      <c r="G15" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <f t="shared" si="4"/>
         <v>-0.367623762376238</v>
       </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="1">
         <v>50</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>286.97</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="26">
         <v>249</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="18">
         <v>249</v>
       </c>
-      <c r="O15" s="11" t="str">
+      <c r="O15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="10">
         <f t="shared" si="1"/>
         <v>-0.152489959839358</v>
       </c>
-      <c r="Q15" s="26"/>
+      <c r="Q15" s="22"/>
       <c r="R15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="S15" s="1">
         <v>75</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="7">
         <v>438.75</v>
       </c>
-      <c r="U15" s="30">
+      <c r="U15" s="26">
         <v>398</v>
       </c>
-      <c r="V15" s="32">
+      <c r="V15" s="28">
         <v>398</v>
       </c>
-      <c r="W15" s="13" t="str">
+      <c r="W15" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X15" s="33">
+      <c r="X15" s="29">
         <f t="shared" si="3"/>
         <v>-0.102386934673367</v>
       </c>
@@ -2404,68 +2392,68 @@
       <c r="C16" s="1">
         <v>6</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>145</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>145</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>145</v>
       </c>
-      <c r="G16" s="11" t="str">
+      <c r="G16" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Igual</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K16" s="1">
         <v>13</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>317</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="26">
         <v>308</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="18">
         <v>339</v>
       </c>
-      <c r="O16" s="11" t="str">
+      <c r="O16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Igual</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="10">
         <f t="shared" si="1"/>
         <v>0.0648967551622419</v>
       </c>
-      <c r="Q16" s="26"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="S16" s="1">
         <v>19</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="7">
         <v>599</v>
       </c>
-      <c r="U16" s="30">
+      <c r="U16" s="26">
         <v>492</v>
       </c>
-      <c r="V16" s="32">
+      <c r="V16" s="28">
         <v>492</v>
       </c>
-      <c r="W16" s="13" t="str">
+      <c r="W16" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X16" s="33">
+      <c r="X16" s="29">
         <f t="shared" si="3"/>
         <v>-0.217479674796748</v>
       </c>
@@ -2477,68 +2465,68 @@
       <c r="C17" s="1">
         <v>65</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>540.34</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>509</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>509</v>
       </c>
-      <c r="G17" s="11" t="str">
+      <c r="G17" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <f t="shared" si="4"/>
         <v>-0.0615717092337918</v>
       </c>
-      <c r="I17" s="26"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="1">
         <v>131</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>1100.26</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="26">
         <v>1049</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="18">
         <v>1049</v>
       </c>
-      <c r="O17" s="11" t="str">
+      <c r="O17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="10">
         <f t="shared" si="1"/>
         <v>-0.0488655862726406</v>
       </c>
-      <c r="Q17" s="26"/>
+      <c r="Q17" s="22"/>
       <c r="R17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S17" s="1">
         <v>196</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="7">
         <v>1640.39</v>
       </c>
-      <c r="U17" s="30">
+      <c r="U17" s="26">
         <v>1671</v>
       </c>
-      <c r="V17" s="32">
+      <c r="V17" s="28">
         <v>1671</v>
       </c>
-      <c r="W17" s="13" t="str">
+      <c r="W17" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X17" s="33">
+      <c r="X17" s="29">
         <f t="shared" si="3"/>
         <v>0.0183183722321962</v>
       </c>
@@ -2550,68 +2538,68 @@
       <c r="C18" s="1">
         <v>4</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>154</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>143</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>143</v>
       </c>
-      <c r="G18" s="11" t="str">
+      <c r="G18" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <f t="shared" si="4"/>
         <v>-0.0769230769230769</v>
       </c>
-      <c r="I18" s="26"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="1">
         <v>8</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>359</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="26">
         <v>359</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="18">
         <v>368</v>
       </c>
-      <c r="O18" s="11" t="str">
+      <c r="O18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Igual</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="10">
         <f t="shared" si="1"/>
         <v>0.0244565217391304</v>
       </c>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="22"/>
       <c r="R18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="S18" s="1">
         <v>12</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="7">
         <v>640</v>
       </c>
-      <c r="U18" s="30">
+      <c r="U18" s="26">
         <v>640</v>
       </c>
-      <c r="V18" s="32">
+      <c r="V18" s="28">
         <v>640</v>
       </c>
-      <c r="W18" s="13" t="str">
+      <c r="W18" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="X18" s="33">
+      <c r="X18" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2623,68 +2611,68 @@
       <c r="C19" s="1">
         <v>5</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>181</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>178</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>178</v>
       </c>
-      <c r="G19" s="11" t="str">
+      <c r="G19" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="10">
         <f t="shared" si="4"/>
         <v>-0.0168539325842697</v>
       </c>
-      <c r="I19" s="26"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K19" s="1">
         <v>10</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>711</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="26">
         <v>683</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="18">
         <v>683</v>
       </c>
-      <c r="O19" s="11" t="str">
+      <c r="O19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="10">
         <f t="shared" si="1"/>
         <v>-0.04099560761347</v>
       </c>
-      <c r="Q19" s="26"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S19" s="1">
         <v>15</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="7">
         <v>1331</v>
       </c>
-      <c r="U19" s="30">
+      <c r="U19" s="26">
         <v>1276</v>
       </c>
-      <c r="V19" s="32">
+      <c r="V19" s="28">
         <v>1276</v>
       </c>
-      <c r="W19" s="13" t="str">
+      <c r="W19" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X19" s="33">
+      <c r="X19" s="29">
         <f t="shared" si="3"/>
         <v>-0.0431034482758621</v>
       </c>
@@ -2696,68 +2684,68 @@
       <c r="C20" s="1">
         <v>6</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>162</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="12">
         <v>231</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>231</v>
       </c>
-      <c r="G20" s="11" t="str">
+      <c r="G20" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <f t="shared" si="4"/>
         <v>0.298701298701299</v>
       </c>
-      <c r="I20" s="26"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K20" s="1">
         <v>12</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>413</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="26">
         <v>396</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="18">
         <v>396</v>
       </c>
-      <c r="O20" s="11" t="str">
+      <c r="O20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="10">
         <f t="shared" si="1"/>
         <v>-0.0429292929292929</v>
       </c>
-      <c r="Q20" s="26"/>
+      <c r="Q20" s="22"/>
       <c r="R20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="S20" s="1">
         <v>18</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="7">
         <v>794</v>
       </c>
-      <c r="U20" s="30">
+      <c r="U20" s="26">
         <v>763</v>
       </c>
-      <c r="V20" s="32">
+      <c r="V20" s="28">
         <v>763</v>
       </c>
-      <c r="W20" s="13" t="str">
+      <c r="W20" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X20" s="33">
+      <c r="X20" s="29">
         <f t="shared" si="3"/>
         <v>-0.0406290956749672</v>
       </c>
@@ -2769,68 +2757,68 @@
       <c r="C21" s="1">
         <v>12</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>558</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="13">
         <v>558</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>558</v>
       </c>
-      <c r="G21" s="11" t="str">
+      <c r="G21" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Igual</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I21" s="26"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="1">
         <v>24</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>1705</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="26">
         <v>1691</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="18">
         <v>1691</v>
       </c>
-      <c r="O21" s="11" t="str">
+      <c r="O21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="10">
         <f t="shared" si="1"/>
         <v>-0.00827912477823773</v>
       </c>
-      <c r="Q21" s="26"/>
+      <c r="Q21" s="22"/>
       <c r="R21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S21" s="1">
         <v>36</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="7">
         <v>3054</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21" s="14">
         <v>3135</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V21" s="15">
         <v>3135</v>
       </c>
-      <c r="W21" s="13" t="str">
+      <c r="W21" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X21" s="33">
+      <c r="X21" s="29">
         <f t="shared" si="3"/>
         <v>0.0258373205741627</v>
       </c>
@@ -2842,68 +2830,68 @@
       <c r="C22" s="1">
         <v>24</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>9332.77</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>7704</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>7704</v>
       </c>
-      <c r="G22" s="11" t="str">
+      <c r="G22" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <f t="shared" si="4"/>
         <v>-0.211418743509865</v>
       </c>
-      <c r="I22" s="26"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="1">
         <v>48</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>20435.51</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="26">
         <v>17634</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="18">
         <v>17634</v>
       </c>
-      <c r="O22" s="11" t="str">
+      <c r="O22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="10">
         <f t="shared" si="1"/>
         <v>-0.158869796983101</v>
       </c>
-      <c r="Q22" s="26"/>
+      <c r="Q22" s="22"/>
       <c r="R22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S22" s="1">
         <v>72</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="7">
         <v>36699.98</v>
       </c>
-      <c r="U22" s="18">
+      <c r="U22" s="14">
         <v>29257</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="15">
         <v>30083</v>
       </c>
-      <c r="W22" s="13" t="str">
+      <c r="W22" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X22" s="33">
+      <c r="X22" s="29">
         <f t="shared" si="3"/>
         <v>-0.219957451052089</v>
       </c>
@@ -2915,68 +2903,68 @@
       <c r="C23" s="1">
         <v>12</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>3454</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="13">
         <v>2094</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>2094</v>
       </c>
-      <c r="G23" s="11" t="str">
+      <c r="G23" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <f t="shared" si="4"/>
         <v>-0.649474689589303</v>
       </c>
-      <c r="I23" s="26"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K23" s="1">
         <v>24</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>5511</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23" s="26">
         <v>4238</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="18">
         <v>4300</v>
       </c>
-      <c r="O23" s="11" t="str">
+      <c r="O23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="10">
         <f t="shared" si="1"/>
         <v>-0.281627906976744</v>
       </c>
-      <c r="Q23" s="26"/>
+      <c r="Q23" s="22"/>
       <c r="R23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S23" s="1">
         <v>36</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="7">
         <v>7612</v>
       </c>
-      <c r="U23" s="18">
+      <c r="U23" s="14">
         <v>6937</v>
       </c>
-      <c r="V23" s="19">
+      <c r="V23" s="15">
         <v>6937</v>
       </c>
-      <c r="W23" s="13" t="str">
+      <c r="W23" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X23" s="33">
+      <c r="X23" s="29">
         <f t="shared" si="3"/>
         <v>-0.0973043102205564</v>
       </c>
@@ -2988,68 +2976,68 @@
       <c r="C24" s="1">
         <v>25</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>4649.79</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <v>4369</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>4369</v>
       </c>
-      <c r="G24" s="11" t="str">
+      <c r="G24" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <f t="shared" si="4"/>
         <v>-0.0642687113756008</v>
       </c>
-      <c r="I24" s="26"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K24" s="1">
         <v>50</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>10075.59</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="26">
         <v>9073</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="18">
         <v>9098</v>
       </c>
-      <c r="O24" s="11" t="str">
+      <c r="O24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="10">
         <f t="shared" si="1"/>
         <v>-0.107451088151242</v>
       </c>
-      <c r="Q24" s="26"/>
+      <c r="Q24" s="22"/>
       <c r="R24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S24" s="1">
         <v>75</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="7">
         <v>14544.38</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24" s="14">
         <v>13982</v>
       </c>
-      <c r="V24" s="19">
+      <c r="V24" s="15">
         <v>14229</v>
       </c>
-      <c r="W24" s="13" t="str">
+      <c r="W24" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X24" s="33">
+      <c r="X24" s="29">
         <f t="shared" si="3"/>
         <v>-0.0221645934359406</v>
       </c>
@@ -3061,68 +3049,68 @@
       <c r="C25" s="1">
         <v>37</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>6400.64</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="13">
         <v>5286</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>5286</v>
       </c>
-      <c r="G25" s="11" t="str">
+      <c r="G25" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="10">
         <f t="shared" si="4"/>
         <v>-0.210866439651911</v>
       </c>
-      <c r="I25" s="26"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="1">
         <v>75</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>14013.34</v>
       </c>
-      <c r="M25" s="30">
+      <c r="M25" s="26">
         <v>11412</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="18">
         <v>11483</v>
       </c>
-      <c r="O25" s="11" t="str">
+      <c r="O25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="10">
         <f t="shared" si="1"/>
         <v>-0.220355307846382</v>
       </c>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="22"/>
       <c r="R25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S25" s="1">
         <v>112</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="7">
         <v>19944.47</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25" s="14">
         <v>17787</v>
       </c>
-      <c r="V25" s="19">
+      <c r="V25" s="15">
         <v>17953</v>
       </c>
-      <c r="W25" s="13" t="str">
+      <c r="W25" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X25" s="33">
+      <c r="X25" s="29">
         <f t="shared" si="3"/>
         <v>-0.110926864590876</v>
       </c>
@@ -3134,68 +3122,68 @@
       <c r="C26" s="1">
         <v>50</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>6767.07</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="13">
         <v>6138</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>6138</v>
       </c>
-      <c r="G26" s="11" t="str">
+      <c r="G26" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="10">
         <f t="shared" si="4"/>
         <v>-0.102487781036168</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K26" s="1">
         <v>100</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>12922.46</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="26">
         <v>13315</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="18">
         <v>13315</v>
       </c>
-      <c r="O26" s="11" t="str">
+      <c r="O26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Melhor</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="10">
         <f t="shared" si="1"/>
         <v>0.0294810364250846</v>
       </c>
-      <c r="Q26" s="26"/>
+      <c r="Q26" s="22"/>
       <c r="R26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S26" s="1">
         <v>150</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="7">
         <v>20463.14</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="14">
         <v>20705</v>
       </c>
-      <c r="V26" s="19">
+      <c r="V26" s="15">
         <v>20855</v>
       </c>
-      <c r="W26" s="13" t="str">
+      <c r="W26" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X26" s="33">
+      <c r="X26" s="29">
         <f t="shared" si="3"/>
         <v>0.0187897386717814</v>
       </c>
@@ -3207,68 +3195,68 @@
       <c r="C27" s="1">
         <v>25</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>5393.56</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="13">
         <v>4014</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>4014</v>
       </c>
-      <c r="G27" s="11" t="str">
+      <c r="G27" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="10">
         <f t="shared" si="4"/>
         <v>-0.343687095166916</v>
       </c>
-      <c r="I27" s="26"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K27" s="1">
         <v>50</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>10708.33</v>
       </c>
-      <c r="M27" s="30">
+      <c r="M27" s="26">
         <v>9071</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="18">
         <v>9071</v>
       </c>
-      <c r="O27" s="11" t="str">
+      <c r="O27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="10">
         <f t="shared" si="1"/>
         <v>-0.180501598500717</v>
       </c>
-      <c r="Q27" s="26"/>
+      <c r="Q27" s="22"/>
       <c r="R27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S27" s="1">
         <v>75</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="7">
         <v>15454.66</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="14">
         <v>14648</v>
       </c>
-      <c r="V27" s="19">
+      <c r="V27" s="15">
         <v>14787</v>
       </c>
-      <c r="W27" s="13" t="str">
+      <c r="W27" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X27" s="33">
+      <c r="X27" s="29">
         <f t="shared" si="3"/>
         <v>-0.0451518225468317</v>
       </c>
@@ -3280,68 +3268,68 @@
       <c r="C28" s="1">
         <v>37</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>5003.2</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="13">
         <v>5119</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>5119</v>
       </c>
-      <c r="G28" s="11" t="str">
+      <c r="G28" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="10">
         <f t="shared" si="4"/>
         <v>0.0226216057823794</v>
       </c>
-      <c r="I28" s="26"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K28" s="1">
         <v>75</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>11076.35</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="26">
         <v>11501</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="18">
         <v>11501</v>
       </c>
-      <c r="O28" s="11" t="str">
+      <c r="O28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Melhor</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="10">
         <f t="shared" si="1"/>
         <v>0.0369228762716285</v>
       </c>
-      <c r="Q28" s="26"/>
+      <c r="Q28" s="22"/>
       <c r="R28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S28" s="1">
         <v>112</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="7">
         <v>16688.08</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="14">
         <v>17090</v>
       </c>
-      <c r="V28" s="19">
+      <c r="V28" s="15">
         <v>17193</v>
       </c>
-      <c r="W28" s="13" t="str">
+      <c r="W28" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X28" s="33">
+      <c r="X28" s="29">
         <f t="shared" si="3"/>
         <v>0.0293677659512591</v>
       </c>
@@ -3353,68 +3341,68 @@
       <c r="C29" s="1">
         <v>50</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>6359.99</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="13">
         <v>5890</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>5890</v>
       </c>
-      <c r="G29" s="11" t="str">
+      <c r="G29" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="10">
         <f t="shared" si="4"/>
         <v>-0.0797945670628183</v>
       </c>
-      <c r="I29" s="26"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K29" s="1">
         <v>100</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>14033.62</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="26">
         <v>12787</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="18">
         <v>12787</v>
       </c>
-      <c r="O29" s="11" t="str">
+      <c r="O29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="10">
         <f t="shared" si="1"/>
         <v>-0.0974912020020334</v>
       </c>
-      <c r="Q29" s="26"/>
+      <c r="Q29" s="22"/>
       <c r="R29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="S29" s="1">
         <v>150</v>
       </c>
-      <c r="T29" s="8">
+      <c r="T29" s="7">
         <v>20173.58</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="14">
         <v>20553</v>
       </c>
-      <c r="V29" s="19">
+      <c r="V29" s="15">
         <v>20851</v>
       </c>
-      <c r="W29" s="13" t="str">
+      <c r="W29" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X29" s="33">
+      <c r="X29" s="29">
         <f t="shared" si="3"/>
         <v>0.0324886096590091</v>
       </c>
@@ -3426,68 +3414,68 @@
       <c r="C30" s="1">
         <v>25</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>4236.4</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="13">
         <v>4293</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>4293</v>
       </c>
-      <c r="G30" s="11" t="str">
+      <c r="G30" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="10">
         <f t="shared" si="4"/>
         <v>0.0131842534358258</v>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K30" s="1">
         <v>50</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>8632.68</v>
       </c>
-      <c r="M30" s="30">
+      <c r="M30" s="26">
         <v>9428</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="18">
         <v>9498</v>
       </c>
-      <c r="O30" s="11" t="str">
+      <c r="O30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Melhor</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="10">
         <f t="shared" si="1"/>
         <v>0.0911054958938724</v>
       </c>
-      <c r="Q30" s="26"/>
+      <c r="Q30" s="22"/>
       <c r="R30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="S30" s="1">
         <v>75</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="7">
         <v>13951.85</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30" s="14">
         <v>14295</v>
       </c>
-      <c r="V30" s="19">
+      <c r="V30" s="15">
         <v>14419</v>
       </c>
-      <c r="W30" s="13" t="str">
+      <c r="W30" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X30" s="33">
+      <c r="X30" s="29">
         <f t="shared" si="3"/>
         <v>0.0323982245648103</v>
       </c>
@@ -3499,68 +3487,68 @@
       <c r="C31" s="1">
         <v>25</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>5220.64</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="13">
         <v>3991</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>3991</v>
       </c>
-      <c r="G31" s="11" t="str">
+      <c r="G31" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="10">
         <f t="shared" si="4"/>
         <v>-0.308103232272613</v>
       </c>
-      <c r="I31" s="26"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="1">
         <v>50</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>10204.13</v>
       </c>
-      <c r="M31" s="30">
+      <c r="M31" s="26">
         <v>8808</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="18">
         <v>8808</v>
       </c>
-      <c r="O31" s="11" t="str">
+      <c r="O31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="10">
         <f t="shared" si="1"/>
         <v>-0.158507039055404</v>
       </c>
-      <c r="Q31" s="26"/>
+      <c r="Q31" s="22"/>
       <c r="R31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="S31" s="1">
         <v>75</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T31" s="7">
         <v>14779.43</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="14">
         <v>13884</v>
       </c>
-      <c r="V31" s="19">
+      <c r="V31" s="15">
         <v>14120</v>
       </c>
-      <c r="W31" s="13" t="str">
+      <c r="W31" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X31" s="33">
+      <c r="X31" s="29">
         <f t="shared" si="3"/>
         <v>-0.0467018413597734</v>
       </c>
@@ -3572,68 +3560,68 @@
       <c r="C32" s="1">
         <v>25</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>3894.47</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="13">
         <v>3663</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>3663</v>
       </c>
-      <c r="G32" s="11" t="str">
+      <c r="G32" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="10">
         <f t="shared" si="4"/>
         <v>-0.0631913731913731</v>
       </c>
-      <c r="I32" s="26"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K32" s="1">
         <v>50</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="7">
         <v>9060.14</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="26">
         <v>9370</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="18">
         <v>9370</v>
       </c>
-      <c r="O32" s="11" t="str">
+      <c r="O32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Melhor</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="10">
         <f t="shared" si="1"/>
         <v>0.0330693703308432</v>
       </c>
-      <c r="Q32" s="26"/>
+      <c r="Q32" s="22"/>
       <c r="R32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S32" s="1">
         <v>75</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="7">
         <v>14943.31</v>
       </c>
-      <c r="U32" s="18">
+      <c r="U32" s="14">
         <v>15347</v>
       </c>
-      <c r="V32" s="19">
+      <c r="V32" s="15">
         <v>15347</v>
       </c>
-      <c r="W32" s="13" t="str">
+      <c r="W32" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X32" s="33">
+      <c r="X32" s="29">
         <f t="shared" si="3"/>
         <v>0.0263041636801981</v>
       </c>
@@ -3645,68 +3633,68 @@
       <c r="C33" s="1">
         <v>26</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>2002.98</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="13">
         <v>2108</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>2108</v>
       </c>
-      <c r="G33" s="11" t="str">
+      <c r="G33" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="10">
         <f t="shared" si="4"/>
         <v>0.049819734345351</v>
       </c>
-      <c r="I33" s="26"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K33" s="1">
         <v>52</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="7">
         <v>5425.48</v>
       </c>
-      <c r="M33" s="30">
+      <c r="M33" s="26">
         <v>5532</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="18">
         <v>5532</v>
       </c>
-      <c r="O33" s="11" t="str">
+      <c r="O33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Melhor</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="10">
         <f t="shared" si="1"/>
         <v>0.0192552422270427</v>
       </c>
-      <c r="Q33" s="26"/>
+      <c r="Q33" s="22"/>
       <c r="R33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="S33" s="1">
         <v>78</v>
       </c>
-      <c r="T33" s="8">
+      <c r="T33" s="7">
         <v>8397.36</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="14">
         <v>8412</v>
       </c>
-      <c r="V33" s="19">
+      <c r="V33" s="15">
         <v>8412</v>
       </c>
-      <c r="W33" s="13" t="str">
+      <c r="W33" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X33" s="33">
+      <c r="X33" s="29">
         <f t="shared" si="3"/>
         <v>0.00174037089871605</v>
       </c>
@@ -3718,68 +3706,68 @@
       <c r="C34" s="1">
         <v>79</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>8571.87</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="13">
         <v>8705</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>8705</v>
       </c>
-      <c r="G34" s="11" t="str">
+      <c r="G34" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="10">
         <f t="shared" si="4"/>
         <v>0.0152935094773118</v>
       </c>
-      <c r="I34" s="26"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K34" s="1">
         <v>159</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="7">
         <v>18685.55</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34" s="26">
         <v>17655</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="18">
         <v>17655</v>
       </c>
-      <c r="O34" s="11" t="str">
+      <c r="O34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="10">
         <f t="shared" si="1"/>
         <v>-0.0583715661285754</v>
       </c>
-      <c r="Q34" s="26"/>
+      <c r="Q34" s="22"/>
       <c r="R34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="S34" s="1">
         <v>238</v>
       </c>
-      <c r="T34" s="8">
+      <c r="T34" s="7">
         <v>28655.37</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="14">
         <v>27963</v>
       </c>
-      <c r="V34" s="19">
+      <c r="V34" s="15">
         <v>28051</v>
       </c>
-      <c r="W34" s="13" t="str">
+      <c r="W34" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X34" s="33">
+      <c r="X34" s="29">
         <f t="shared" si="3"/>
         <v>-0.0215453994509999</v>
       </c>
@@ -3791,68 +3779,68 @@
       <c r="C35" s="1">
         <v>19</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>21496.25</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="14">
         <v>17728</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="15">
         <v>17728</v>
       </c>
-      <c r="G35" s="11" t="str">
+      <c r="G35" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="10">
         <f t="shared" si="4"/>
         <v>-0.21255922833935</v>
       </c>
-      <c r="I35" s="26"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K35" s="1">
         <v>38</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="7">
         <v>42006.67</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="18">
         <v>37793</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="18">
         <v>37793</v>
       </c>
-      <c r="O35" s="11" t="str">
+      <c r="O35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="10">
         <f t="shared" si="1"/>
         <v>-0.111493398248353</v>
       </c>
-      <c r="Q35" s="26"/>
+      <c r="Q35" s="22"/>
       <c r="R35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="S35" s="1">
         <v>57</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T35" s="7">
         <v>61124.81</v>
       </c>
-      <c r="U35" s="18">
+      <c r="U35" s="14">
         <v>62262</v>
       </c>
-      <c r="V35" s="19">
+      <c r="V35" s="15">
         <v>62262</v>
       </c>
-      <c r="W35" s="13" t="str">
+      <c r="W35" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X35" s="33">
+      <c r="X35" s="29">
         <f t="shared" si="3"/>
         <v>0.0182645915646783</v>
       </c>
@@ -3864,68 +3852,68 @@
       <c r="C36" s="1">
         <v>26</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>7038.06</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="14">
         <v>6981</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="15">
         <v>6981</v>
       </c>
-      <c r="G36" s="11" t="str">
+      <c r="G36" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="10">
         <f t="shared" si="4"/>
         <v>-0.00817361409540186</v>
       </c>
-      <c r="I36" s="26"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K36" s="1">
         <v>52</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="7">
         <v>15092.28</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="18">
         <v>14839</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="18">
         <v>14839</v>
       </c>
-      <c r="O36" s="11" t="str">
+      <c r="O36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="10">
         <f t="shared" si="1"/>
         <v>-0.0170685356156076</v>
       </c>
-      <c r="Q36" s="26"/>
+      <c r="Q36" s="22"/>
       <c r="R36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="S36" s="1">
         <v>80</v>
       </c>
-      <c r="T36" s="8">
+      <c r="T36" s="7">
         <v>30429.58</v>
       </c>
-      <c r="U36" s="18">
+      <c r="U36" s="14">
         <v>29684</v>
       </c>
-      <c r="V36" s="19">
+      <c r="V36" s="15">
         <v>29684</v>
       </c>
-      <c r="W36" s="13" t="str">
+      <c r="W36" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X36" s="33">
+      <c r="X36" s="29">
         <f t="shared" si="3"/>
         <v>-0.0251172348740063</v>
       </c>
@@ -3937,68 +3925,68 @@
       <c r="C37" s="1">
         <v>31</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>10080.05</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="14">
         <v>9596</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="15">
         <v>9596</v>
       </c>
-      <c r="G37" s="11" t="str">
+      <c r="G37" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="10">
         <f t="shared" si="4"/>
         <v>-0.0504428928720299</v>
       </c>
-      <c r="I37" s="26"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K37" s="1">
         <v>62</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="7">
         <v>22935.61</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="18">
         <v>21420</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N37" s="18">
         <v>21564</v>
       </c>
-      <c r="O37" s="11" t="str">
+      <c r="O37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="10">
         <f t="shared" si="1"/>
         <v>-0.0636064737525506</v>
       </c>
-      <c r="Q37" s="26"/>
+      <c r="Q37" s="22"/>
       <c r="R37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="S37" s="1">
         <v>93</v>
       </c>
-      <c r="T37" s="8">
+      <c r="T37" s="7">
         <v>36650.4</v>
       </c>
-      <c r="U37" s="18">
+      <c r="U37" s="14">
         <v>36977</v>
       </c>
-      <c r="V37" s="19">
+      <c r="V37" s="15">
         <v>36977</v>
       </c>
-      <c r="W37" s="13" t="str">
+      <c r="W37" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X37" s="33">
+      <c r="X37" s="29">
         <f t="shared" si="3"/>
         <v>0.0088325175108851</v>
       </c>
@@ -4010,68 +3998,68 @@
       <c r="C38" s="1">
         <v>34</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>20714.89</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="14">
         <v>20928</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="15">
         <v>20928</v>
       </c>
-      <c r="G38" s="11" t="str">
+      <c r="G38" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="10">
         <f t="shared" si="4"/>
         <v>0.010183008409786</v>
       </c>
-      <c r="I38" s="26"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K38" s="1">
         <v>68</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="7">
         <v>45462.43</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="18">
         <v>47911</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N38" s="18">
         <v>48960</v>
       </c>
-      <c r="O38" s="11" t="str">
+      <c r="O38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Melhor</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="10">
         <f t="shared" si="1"/>
         <v>0.071437295751634</v>
       </c>
-      <c r="Q38" s="26"/>
+      <c r="Q38" s="22"/>
       <c r="R38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="S38" s="1">
         <v>102</v>
       </c>
-      <c r="T38" s="8">
+      <c r="T38" s="7">
         <v>68368.27</v>
       </c>
-      <c r="U38" s="18">
+      <c r="U38" s="14">
         <v>67879</v>
       </c>
-      <c r="V38" s="19">
+      <c r="V38" s="15">
         <v>69818</v>
       </c>
-      <c r="W38" s="13" t="str">
+      <c r="W38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="X38" s="33">
+      <c r="X38" s="29">
         <f t="shared" si="3"/>
         <v>0.0207644160531667</v>
       </c>
@@ -4083,68 +4071,68 @@
       <c r="C39" s="1">
         <v>36</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>10742.86</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="14">
         <v>10743</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="15">
         <v>10743</v>
       </c>
-      <c r="G39" s="11" t="str">
+      <c r="G39" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="10">
         <f t="shared" si="4"/>
         <v>1.30317415991267e-5</v>
       </c>
-      <c r="I39" s="26"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K39" s="1">
         <v>72</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="7">
         <v>25880.31</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="18">
         <v>26296</v>
       </c>
-      <c r="N39" s="22">
+      <c r="N39" s="18">
         <v>26296</v>
       </c>
-      <c r="O39" s="11" t="str">
+      <c r="O39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Melhor</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="10">
         <f t="shared" si="1"/>
         <v>0.0158081076969881</v>
       </c>
-      <c r="Q39" s="26"/>
+      <c r="Q39" s="22"/>
       <c r="R39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="S39" s="1">
         <v>108</v>
       </c>
-      <c r="T39" s="8">
+      <c r="T39" s="7">
         <v>40210.94</v>
       </c>
-      <c r="U39" s="18">
+      <c r="U39" s="14">
         <v>40274</v>
       </c>
-      <c r="V39" s="19">
+      <c r="V39" s="15">
         <v>40832</v>
       </c>
-      <c r="W39" s="13" t="str">
+      <c r="W39" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X39" s="33">
+      <c r="X39" s="29">
         <f t="shared" si="3"/>
         <v>0.0152101293103448</v>
       </c>
@@ -4156,68 +4144,68 @@
       <c r="C40" s="1">
         <v>38</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>14780.62</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="14">
         <v>15403</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="15">
         <v>15403</v>
       </c>
-      <c r="G40" s="11" t="str">
+      <c r="G40" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="10">
         <f t="shared" si="4"/>
         <v>0.0404064143348698</v>
       </c>
-      <c r="I40" s="26"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K40" s="1">
         <v>76</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="7">
         <v>32440.64</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="18">
         <v>30712</v>
       </c>
-      <c r="N40" s="22">
+      <c r="N40" s="18">
         <v>30718</v>
       </c>
-      <c r="O40" s="11" t="str">
+      <c r="O40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="10">
         <f t="shared" si="1"/>
         <v>-0.0560791718210821</v>
       </c>
-      <c r="Q40" s="26"/>
+      <c r="Q40" s="22"/>
       <c r="R40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S40" s="1">
         <v>114</v>
       </c>
-      <c r="T40" s="8">
+      <c r="T40" s="7">
         <v>46089.98</v>
       </c>
-      <c r="U40" s="18">
+      <c r="U40" s="14">
         <v>46434</v>
       </c>
-      <c r="V40" s="19">
+      <c r="V40" s="15">
         <v>46635</v>
       </c>
-      <c r="W40" s="13" t="str">
+      <c r="W40" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X40" s="33">
+      <c r="X40" s="29">
         <f t="shared" si="3"/>
         <v>0.0116869304170687</v>
       </c>
@@ -4229,68 +4217,68 @@
       <c r="C41" s="1">
         <v>56</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>21374.46</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="14">
         <v>18594</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="15">
         <v>18645</v>
       </c>
-      <c r="G41" s="11" t="str">
+      <c r="G41" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="10">
         <f t="shared" si="4"/>
         <v>-0.146390989541432</v>
       </c>
-      <c r="I41" s="26"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K41" s="1">
         <v>113</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="7">
         <v>41301.91</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="18">
         <v>33349</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="18">
         <v>33349</v>
       </c>
-      <c r="O41" s="11" t="str">
+      <c r="O41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="10">
         <f t="shared" si="1"/>
         <v>-0.238475216648175</v>
       </c>
-      <c r="Q41" s="26"/>
+      <c r="Q41" s="22"/>
       <c r="R41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S41" s="1">
         <v>169</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T41" s="7">
         <v>48188.7</v>
       </c>
-      <c r="U41" s="18">
+      <c r="U41" s="14">
         <v>49022</v>
       </c>
-      <c r="V41" s="19">
+      <c r="V41" s="15">
         <v>49588</v>
       </c>
-      <c r="W41" s="13" t="str">
+      <c r="W41" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X41" s="33">
+      <c r="X41" s="29">
         <f t="shared" si="3"/>
         <v>0.028218520609825</v>
       </c>
@@ -4302,68 +4290,68 @@
       <c r="C42" s="1">
         <v>24</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>255.03</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="14">
         <v>260</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="15">
         <v>260</v>
       </c>
-      <c r="G42" s="11" t="str">
+      <c r="G42" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="10">
         <f t="shared" si="4"/>
         <v>0.0191153846153846</v>
       </c>
-      <c r="I42" s="26"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K42" s="1">
         <v>49</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="7">
         <v>557.86</v>
       </c>
-      <c r="M42" s="22">
+      <c r="M42" s="18">
         <v>554</v>
       </c>
-      <c r="N42" s="22">
+      <c r="N42" s="18">
         <v>554</v>
       </c>
-      <c r="O42" s="11" t="str">
+      <c r="O42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="10">
         <f t="shared" si="1"/>
         <v>-0.00696750902527078</v>
       </c>
-      <c r="Q42" s="26"/>
+      <c r="Q42" s="22"/>
       <c r="R42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="S42" s="1">
         <v>74</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T42" s="7">
         <v>864.95</v>
       </c>
-      <c r="U42" s="18">
+      <c r="U42" s="14">
         <v>868</v>
       </c>
-      <c r="V42" s="19">
+      <c r="V42" s="15">
         <v>868</v>
       </c>
-      <c r="W42" s="13" t="str">
+      <c r="W42" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X42" s="33">
+      <c r="X42" s="29">
         <f t="shared" si="3"/>
         <v>0.00351382488479257</v>
       </c>
@@ -4375,68 +4363,68 @@
       <c r="C43" s="1">
         <v>48</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>529.26</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="14">
         <v>538</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="15">
         <v>538</v>
       </c>
-      <c r="G43" s="11" t="str">
+      <c r="G43" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Melhor</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="10">
         <f t="shared" si="4"/>
         <v>0.0162453531598513</v>
       </c>
-      <c r="I43" s="26"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K43" s="1">
         <v>97</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L43" s="7">
         <v>1109.68</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="18">
         <v>1106</v>
       </c>
-      <c r="N43" s="22">
+      <c r="N43" s="18">
         <v>1108</v>
       </c>
-      <c r="O43" s="11" t="str">
+      <c r="O43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="10">
         <f t="shared" si="1"/>
         <v>-0.00151624548736468</v>
       </c>
-      <c r="Q43" s="26"/>
+      <c r="Q43" s="22"/>
       <c r="R43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="S43" s="1">
         <v>146</v>
       </c>
-      <c r="T43" s="8">
+      <c r="T43" s="7">
         <v>1669.63</v>
       </c>
-      <c r="U43" s="18">
+      <c r="U43" s="14">
         <v>1669</v>
       </c>
-      <c r="V43" s="19">
+      <c r="V43" s="15">
         <v>1670</v>
       </c>
-      <c r="W43" s="13" t="str">
+      <c r="W43" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="X43" s="33">
+      <c r="X43" s="29">
         <f t="shared" si="3"/>
         <v>0.00022155688622748</v>
       </c>
@@ -4448,68 +4436,68 @@
       <c r="C44" s="1">
         <v>17</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>126.31</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="14">
         <v>110</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="15">
         <v>114</v>
       </c>
-      <c r="G44" s="11" t="str">
+      <c r="G44" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="10">
         <f t="shared" si="4"/>
         <v>-0.107982456140351</v>
       </c>
-      <c r="I44" s="26"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K44" s="1">
         <v>35</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="7">
         <v>274.86</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="18">
         <v>250</v>
       </c>
-      <c r="N44" s="22">
+      <c r="N44" s="18">
         <v>264</v>
       </c>
-      <c r="O44" s="11" t="str">
+      <c r="O44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P44" s="12">
+      <c r="P44" s="10">
         <f t="shared" si="1"/>
         <v>-0.0411363636363637</v>
       </c>
-      <c r="Q44" s="26"/>
+      <c r="Q44" s="22"/>
       <c r="R44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="S44" s="1">
         <v>52</v>
       </c>
-      <c r="T44" s="8">
+      <c r="T44" s="7">
         <v>440.64</v>
       </c>
-      <c r="U44" s="18">
+      <c r="U44" s="14">
         <v>437</v>
       </c>
-      <c r="V44" s="19">
+      <c r="V44" s="15">
         <v>446</v>
       </c>
-      <c r="W44" s="13" t="str">
+      <c r="W44" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Igual</v>
       </c>
-      <c r="X44" s="33">
+      <c r="X44" s="29">
         <f t="shared" si="3"/>
         <v>0.012017937219731</v>
       </c>
@@ -4521,68 +4509,68 @@
       <c r="C45" s="1">
         <v>10</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>146</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="14">
         <v>66</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="15">
         <v>66</v>
       </c>
-      <c r="G45" s="11" t="str">
+      <c r="G45" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="10">
         <f t="shared" si="4"/>
         <v>-1.21212121212121</v>
       </c>
-      <c r="I45" s="26"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K45" s="1">
         <v>21</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="7">
         <v>425</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="18">
         <v>132</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N45" s="18">
         <v>141</v>
       </c>
-      <c r="O45" s="11" t="str">
+      <c r="O45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P45" s="12">
+      <c r="P45" s="10">
         <f t="shared" si="1"/>
         <v>-2.01418439716312</v>
       </c>
-      <c r="Q45" s="26"/>
+      <c r="Q45" s="22"/>
       <c r="R45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="S45" s="1">
         <v>31</v>
       </c>
-      <c r="T45" s="8">
+      <c r="T45" s="7">
         <v>715</v>
       </c>
-      <c r="U45" s="18">
+      <c r="U45" s="14">
         <v>281</v>
       </c>
-      <c r="V45" s="19">
+      <c r="V45" s="15">
         <v>281</v>
       </c>
-      <c r="W45" s="13" t="str">
+      <c r="W45" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X45" s="33">
+      <c r="X45" s="29">
         <f t="shared" si="3"/>
         <v>-1.54448398576512</v>
       </c>
@@ -4594,68 +4582,68 @@
       <c r="C46" s="1">
         <v>4</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>751.06</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="16">
         <v>618</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="17">
         <v>618</v>
       </c>
-      <c r="G46" s="11" t="str">
+      <c r="G46" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="10">
         <f t="shared" si="4"/>
         <v>-0.215307443365696</v>
       </c>
-      <c r="I46" s="26"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K46" s="1">
         <v>8</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="7">
         <v>1981.71</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="18">
         <v>1329</v>
       </c>
-      <c r="N46" s="22">
+      <c r="N46" s="18">
         <v>1329</v>
       </c>
-      <c r="O46" s="11" t="str">
+      <c r="O46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="10">
         <f t="shared" si="1"/>
         <v>-0.491128668171558</v>
       </c>
-      <c r="Q46" s="26"/>
+      <c r="Q46" s="22"/>
       <c r="R46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="S46" s="1">
         <v>12</v>
       </c>
-      <c r="T46" s="8">
+      <c r="T46" s="7">
         <v>2741.1</v>
       </c>
-      <c r="U46" s="20">
+      <c r="U46" s="16">
         <v>2704</v>
       </c>
-      <c r="V46" s="21">
+      <c r="V46" s="17">
         <v>2704</v>
       </c>
-      <c r="W46" s="13" t="str">
+      <c r="W46" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Pior</v>
       </c>
-      <c r="X46" s="33">
+      <c r="X46" s="29">
         <f t="shared" si="3"/>
         <v>-0.0137204142011834</v>
       </c>
@@ -4667,130 +4655,130 @@
       <c r="C47" s="1">
         <v>5</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>456.58</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="18">
         <v>447</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="18">
         <v>447</v>
       </c>
-      <c r="G47" s="11" t="str">
+      <c r="G47" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pior</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="10">
         <f t="shared" si="4"/>
         <v>-0.0214317673378076</v>
       </c>
-      <c r="I47" s="26"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K47" s="1">
         <v>11</v>
       </c>
-      <c r="L47" s="8">
+      <c r="L47" s="7">
         <v>2062.92</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="18">
         <v>1473</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N47" s="18">
         <v>1473</v>
       </c>
-      <c r="O47" s="11" t="str">
+      <c r="O47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pior</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P47" s="10">
         <f t="shared" si="1"/>
         <v>-0.400488798370672</v>
       </c>
-      <c r="Q47" s="26"/>
+      <c r="Q47" s="22"/>
       <c r="R47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S47" s="1">
         <v>16</v>
       </c>
-      <c r="T47" s="8">
+      <c r="T47" s="7">
         <v>2540.07</v>
       </c>
-      <c r="U47" s="22">
+      <c r="U47" s="18">
         <v>2618</v>
       </c>
-      <c r="V47" s="32">
+      <c r="V47" s="28">
         <v>2618</v>
       </c>
-      <c r="W47" s="13" t="str">
+      <c r="W47" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Melhor</v>
       </c>
-      <c r="X47" s="33">
+      <c r="X47" s="29">
         <f t="shared" si="3"/>
         <v>0.0297669977081741</v>
       </c>
     </row>
     <row r="48" ht="15.75" spans="2:17">
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
     </row>
     <row r="49" ht="15.75" spans="2:20">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="24"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="20"/>
     </row>
     <row r="50" ht="15.75" spans="2:20">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="24"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="20"/>
     </row>
     <row r="51" ht="15.75" spans="2:20">
       <c r="B51" s="1" t="s">
@@ -4799,310 +4787,310 @@
       <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="24"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="20"/>
     </row>
     <row r="52" ht="15.75" spans="2:20">
-      <c r="B52" s="27">
+      <c r="B52" s="23">
         <f>COUNTIF(G4:G47,"Pior")+COUNTIF(O4:O47,"Pior")+COUNTIF(W4:W47,"Pior")</f>
         <v>80</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="23">
         <f>COUNTIF(G4:G47,"Melhor")+COUNTIF(O4:O47,"Melhor")+COUNTIF(W4:W47,"Melhor")</f>
         <v>39</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="23">
         <f>COUNTIF(G4:G47,"Igual")+COUNTIF(O4:O47,"Igual")+COUNTIF(W4:W47,"Igual")</f>
         <v>13</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="24"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="20"/>
     </row>
     <row r="53" ht="15.75" spans="2:20">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
     </row>
     <row r="54" ht="15.75" spans="2:20">
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
     </row>
     <row r="55" ht="15.75" spans="2:20">
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="24"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="20"/>
     </row>
     <row r="56" ht="15.75" spans="2:20">
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="24"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="20"/>
     </row>
     <row r="57" ht="15.75" spans="2:20">
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="24"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="20"/>
     </row>
     <row r="58" ht="15.75" spans="2:20">
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="24"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="20"/>
     </row>
     <row r="59" ht="15.75" spans="2:20">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="20"/>
     </row>
     <row r="60" ht="15.75" spans="2:20">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
     </row>
     <row r="61" ht="15.75" spans="2:20">
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
     </row>
     <row r="62" ht="15.75" spans="2:20">
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="24"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="20"/>
     </row>
     <row r="63" ht="15.75" spans="5:20">
-      <c r="E63" s="25"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="24"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="20"/>
     </row>
     <row r="64" ht="15.75" spans="5:17">
-      <c r="E64" s="25"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
     </row>
     <row r="65" ht="15.75" spans="2:17">
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Arquivos/Análises/Comparação entre RVND e os resultados do artigo.xlsx
+++ b/Arquivos/Análises/Comparação entre RVND e os resultados do artigo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="4785"/>
+    <workbookView windowWidth="13725" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
     <t>ulysses22</t>
   </si>
   <si>
-    <t>Contagem de casos</t>
+    <t>Comparação com os artigos com a RVND</t>
   </si>
   <si>
     <t>Piores</t>
@@ -201,11 +201,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
@@ -243,9 +243,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,15 +366,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,97 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,96 +397,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +420,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +498,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,25 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,17 +724,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +752,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -768,15 +792,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,168 +810,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1384,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="B2:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P19" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
